--- a/To do.xlsx
+++ b/To do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Adicionar uma seção com as minhas habilidades e o nivel que acho que tenho em cada uma delas</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Mudar o icone do linkedin para o glyph do FA  Twitter Face email@ Linkedin</t>
+  </si>
+  <si>
+    <t>Me envie uma mensagem de apoio ! Freecodecamp cert</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,7 +413,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/To do.xlsx
+++ b/To do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Adicionar uma seção com as minhas habilidades e o nivel que acho que tenho em cada uma delas</t>
   </si>
@@ -31,13 +31,16 @@
   </si>
   <si>
     <t>Me envie uma mensagem de apoio ! Freecodecamp cert</t>
+  </si>
+  <si>
+    <t>Fazer alguma arte no menu, que se mova apos sair do scrollTop 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,8 +55,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +72,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -79,10 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,8 +431,13 @@
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
